--- a/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_per_day_fixed_period_3_square_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_per_day_fixed_period_3_square_0_.xlsx
@@ -599,7 +599,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[53.78820120535741, 71.70080065612461]</t>
+          <t>[53.6362303017758, 71.85277155970623]</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -627,7 +627,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[42.447012473332606, 54.872807586911364]</t>
+          <t>[42.45159382969866, 54.86822623054531]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -685,35 +685,35 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[50.95447884913297, 74.14817170899234]</t>
+          <t>[50.872209087677334, 74.23044147044797]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.641531520770513e-14</v>
+        <v>4.596323321948148e-14</v>
       </c>
       <c r="O3" t="n">
-        <v>3.641531520770513e-14</v>
+        <v>4.596323321948148e-14</v>
       </c>
       <c r="P3" t="n">
         <v>1.251605481610349</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.0503422885875784, 1.4528686746331188]</t>
+          <t>[1.0629212381515023, 1.4402897250691948]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>47.72467490391369</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[41.125310454251554, 54.32403935357582]</t>
+          <t>[41.12999394560171, 54.31935586222566]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -726,10 +726,10 @@
         <v>20.33233233233275</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.51903903903944</v>
+        <v>19.56986986987028</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.14562562562607</v>
+        <v>21.09479479479523</v>
       </c>
     </row>
     <row r="4">
@@ -771,14 +771,14 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[50.81548663086012, 76.61053291973064]</t>
+          <t>[51.10217547189261, 76.32384407869816]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>6.092903959142859e-13</v>
+        <v>3.004263504635674e-13</v>
       </c>
       <c r="O4" t="n">
-        <v>6.092903959142859e-13</v>
+        <v>3.004263504635674e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0.9119738433844251</v>
@@ -799,7 +799,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[44.05158476238175, 57.49119791952033]</t>
+          <t>[44.05309089292267, 57.489691788979414]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -857,35 +857,35 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[52.386650035117896, 77.76785546958584]</t>
+          <t>[52.685881833550106, 77.46862367115364]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1.871836019518014e-13</v>
+        <v>8.681944052568724e-14</v>
       </c>
       <c r="O5" t="n">
-        <v>1.871836019518014e-13</v>
+        <v>8.681944052568724e-14</v>
       </c>
       <c r="P5" t="n">
         <v>0.5346053564667317</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.34592111300788453, 0.7232895999255788]</t>
+          <t>[0.3333421634439624, 0.735868549489501]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>8.494301764194745e-07</v>
+        <v>2.845477669044527e-06</v>
       </c>
       <c r="S5" t="n">
-        <v>8.494301764194745e-07</v>
+        <v>2.845477669044527e-06</v>
       </c>
       <c r="T5" t="n">
         <v>51.49879328070264</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[44.830353648242486, 58.1672329131628]</t>
+          <t>[44.833558309356775, 58.16402825204851]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -898,10 +898,10 @@
         <v>23.22968968969018</v>
       </c>
       <c r="Y5" t="n">
-        <v>22.4672272272277</v>
+        <v>22.41639639639687</v>
       </c>
       <c r="Z5" t="n">
-        <v>23.99215215215266</v>
+        <v>24.04298298298349</v>
       </c>
     </row>
     <row r="6">
@@ -943,7 +943,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[52.78642715971064, 72.8012330226627]</t>
+          <t>[52.69097293680791, 72.89668724556543]</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -957,21 +957,21 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.08176317216549922, 0.24528951649649944]</t>
+          <t>[-0.09434212172942402, 0.25786846606042424]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.3192945136149026</v>
+        <v>0.3547179786689276</v>
       </c>
       <c r="S6" t="n">
-        <v>0.3192945136149026</v>
+        <v>0.3547179786689276</v>
       </c>
       <c r="T6" t="n">
         <v>47.54303785466583</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[41.105525492856735, 53.98055021647493]</t>
+          <t>[41.0944860234605, 53.99158968587117]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -984,10 +984,10 @@
         <v>22.75005005005021</v>
       </c>
       <c r="Y6" t="n">
-        <v>22.15015015015031</v>
+        <v>22.10400400400416</v>
       </c>
       <c r="Z6" t="n">
-        <v>23.34994994995011</v>
+        <v>23.39609609609627</v>
       </c>
     </row>
     <row r="7">
@@ -1029,14 +1029,14 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[51.93479944358981, 74.09759996356006]</t>
+          <t>[52.28029439847279, 73.75210500867708]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>6.217248937900877e-15</v>
+        <v>1.998401444325282e-15</v>
       </c>
       <c r="O7" t="n">
-        <v>6.217248937900877e-15</v>
+        <v>1.998401444325282e-15</v>
       </c>
       <c r="P7" t="n">
         <v>0.2830263651882694</v>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[43.32962736797584, 56.15117373945325]</t>
+          <t>[43.325626862420535, 56.15517424500855]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1115,35 +1115,35 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[51.587796614398314, 75.56804811236202]</t>
+          <t>[51.48333470232198, 75.67251002443835]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>6.372680161348399e-14</v>
+        <v>8.43769498715119e-14</v>
       </c>
       <c r="O8" t="n">
-        <v>6.372680161348399e-14</v>
+        <v>8.43769498715119e-14</v>
       </c>
       <c r="P8" t="n">
         <v>0.5471843060306538</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.35850006257180667, 0.735868549489501]</t>
+          <t>[0.34592111300788364, 0.748447499053424]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>5.375660059314669e-07</v>
+        <v>1.859477410048882e-06</v>
       </c>
       <c r="S8" t="n">
-        <v>5.375660059314669e-07</v>
+        <v>1.859477410048882e-06</v>
       </c>
       <c r="T8" t="n">
         <v>50.031466553865</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[43.64524264300913, 56.41769046472088]</t>
+          <t>[43.64428865750558, 56.41864445022443]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1156,10 +1156,10 @@
         <v>21.0426426426428</v>
       </c>
       <c r="Y8" t="n">
-        <v>20.3504504504506</v>
+        <v>20.30430430430445</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.734834834835</v>
+        <v>21.78098098098114</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_per_day_fixed_period_3_square_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_per_day_fixed_period_3_square_0_.xlsx
@@ -599,7 +599,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[53.6362303017758, 71.85277155970623]</t>
+          <t>[53.58572062155753, 71.9032812399245]</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -627,7 +627,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[42.45159382969866, 54.86822623054531]</t>
+          <t>[42.45435110031278, 54.86546895993119]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -685,35 +685,35 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[50.872209087677334, 74.23044147044797]</t>
+          <t>[51.30628922431384, 73.79636133381146]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>4.596323321948148e-14</v>
+        <v>1.310063169057685e-14</v>
       </c>
       <c r="O3" t="n">
-        <v>4.596323321948148e-14</v>
+        <v>1.310063169057685e-14</v>
       </c>
       <c r="P3" t="n">
         <v>1.251605481610349</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.0629212381515023, 1.4402897250691948]</t>
+          <t>[1.0503422885875784, 1.4528686746331188]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="T3" t="n">
         <v>47.72467490391369</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[41.12999394560171, 54.31935586222566]</t>
+          <t>[41.13418430903364, 54.31516549879373]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -726,10 +726,10 @@
         <v>20.33233233233275</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.56986986987028</v>
+        <v>19.51903903903944</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.09479479479523</v>
+        <v>21.14562562562607</v>
       </c>
     </row>
     <row r="4">
@@ -771,14 +771,14 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[51.10217547189261, 76.32384407869816]</t>
+          <t>[51.144686438041, 76.28133311254976]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.004263504635674e-13</v>
+        <v>2.700062395888381e-13</v>
       </c>
       <c r="O4" t="n">
-        <v>3.004263504635674e-13</v>
+        <v>2.700062395888381e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0.9119738433844251</v>
@@ -799,7 +799,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[44.05309089292267, 57.489691788979414]</t>
+          <t>[44.049658271338814, 57.49312441056327]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -857,14 +857,14 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[52.685881833550106, 77.46862367115364]</t>
+          <t>[52.13744835398634, 78.01705715071739]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>8.681944052568724e-14</v>
+        <v>3.470557174978239e-13</v>
       </c>
       <c r="O5" t="n">
-        <v>8.681944052568724e-14</v>
+        <v>3.470557174978239e-13</v>
       </c>
       <c r="P5" t="n">
         <v>0.5346053564667317</v>
@@ -885,7 +885,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[44.833558309356775, 58.16402825204851]</t>
+          <t>[44.836080450809455, 58.16150611059583]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -943,7 +943,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[52.69097293680791, 72.89668724556543]</t>
+          <t>[52.89397632415205, 72.69368385822129]</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -971,7 +971,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[41.0944860234605, 53.99158968587117]</t>
+          <t>[41.09861302318281, 53.98746268614886]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -1029,14 +1029,14 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[52.28029439847279, 73.75210500867708]</t>
+          <t>[52.06627778474754, 73.96612162240233]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1.998401444325282e-15</v>
+        <v>4.218847493575595e-15</v>
       </c>
       <c r="O7" t="n">
-        <v>1.998401444325282e-15</v>
+        <v>4.218847493575595e-15</v>
       </c>
       <c r="P7" t="n">
         <v>0.2830263651882694</v>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[43.325626862420535, 56.15517424500855]</t>
+          <t>[43.3302708582431, 56.15053024918599]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1115,14 +1115,14 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[51.48333470232198, 75.67251002443835]</t>
+          <t>[51.662561651876196, 75.49328307488415]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>8.43769498715119e-14</v>
+        <v>5.195843755245733e-14</v>
       </c>
       <c r="O8" t="n">
-        <v>8.43769498715119e-14</v>
+        <v>5.195843755245733e-14</v>
       </c>
       <c r="P8" t="n">
         <v>0.5471843060306538</v>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[43.64428865750558, 56.41864445022443]</t>
+          <t>[43.640415625123474, 56.42251748260653]</t>
         </is>
       </c>
       <c r="V8" t="n">
